--- a/PYTHON/EXCEL/dados.xlsx
+++ b/PYTHON/EXCEL/dados.xlsx
@@ -1,23 +1,23 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26501"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26529"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Luana\Documents\GitHub\ALURA\PYTHON\EXCEL\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Luana\Documents\GitHub\ALURA\PYTHON\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B97578B8-E22C-4C53-B51C-E68943760A3E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{85831578-0496-409C-901E-0EAF2E3AC3E7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="GOLDEN FARMA" sheetId="2" r:id="rId1"/>
+    <sheet name="FARMACIA" sheetId="2" r:id="rId1"/>
     <sheet name="NOMES" sheetId="3" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0">'GOLDEN FARMA'!$A$1:$L$1147</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0">FARMACIA!$A$1:$L$1147</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1">NOMES!$A$1:$L$1147</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16066" uniqueCount="4653">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16066" uniqueCount="4654">
   <si>
     <t>EmpresaID</t>
   </si>
@@ -13984,6 +13984,9 @@
   </si>
   <si>
     <t>54480594X</t>
+  </si>
+  <si>
+    <t>Cargo</t>
   </si>
 </sst>
 </file>
@@ -14568,7 +14571,7 @@
   <tableColumns count="12">
     <tableColumn id="1" xr3:uid="{C09D1B9A-D4FD-4161-BCA6-C65C063B4D99}" name="ID" dataDxfId="11"/>
     <tableColumn id="2" xr3:uid="{DBE4AF7B-C32A-47B2-A73C-9873BEFE6A41}" name="Nome" dataDxfId="10"/>
-    <tableColumn id="13" xr3:uid="{7797F87E-1F10-4526-93CA-0BCB0458CB99}" name="FUNÇÃO" dataDxfId="9"/>
+    <tableColumn id="13" xr3:uid="{7797F87E-1F10-4526-93CA-0BCB0458CB99}" name="Cargo" dataDxfId="9"/>
     <tableColumn id="12" xr3:uid="{1C27BCA8-0C5E-4672-A733-72B7EEBD9A10}" name="DATA DE NASCIMENTO" dataDxfId="8"/>
     <tableColumn id="11" xr3:uid="{63745AC7-8764-4101-B2BF-E2C4CA894D5A}" name="CPF" dataDxfId="7"/>
     <tableColumn id="10" xr3:uid="{01267980-F970-4E63-ABC0-E8F08918C8C5}" name="RG" dataDxfId="6"/>
@@ -14884,7 +14887,7 @@
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" sqref="A1:B20"/>
+      <selection pane="bottomLeft" activeCell="B22" sqref="B22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="13"/>
@@ -58499,7 +58502,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" sqref="A1:B20"/>
+      <selection pane="bottomLeft" activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="13"/>
@@ -58522,7 +58525,7 @@
         <v>3</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>4592</v>
+        <v>4653</v>
       </c>
       <c r="D1" s="7" t="s">
         <v>2299</v>

--- a/PYTHON/EXCEL/dados.xlsx
+++ b/PYTHON/EXCEL/dados.xlsx
@@ -5,16 +5,17 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Luana\Documents\GitHub\ALURA\PYTHON\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Luana\Documents\GitHub\ALURA\PYTHON\EXCEL\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{85831578-0496-409C-901E-0EAF2E3AC3E7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A2FA8915-F48B-492E-9FBB-5DEF664A62D2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="FARMACIA" sheetId="2" r:id="rId1"/>
     <sheet name="NOMES" sheetId="3" r:id="rId2"/>
+    <sheet name="plan1" sheetId="4" r:id="rId3"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0">FARMACIA!$A$1:$L$1147</definedName>
@@ -25,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16066" uniqueCount="4654">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16148" uniqueCount="4654">
   <si>
     <t>EmpresaID</t>
   </si>
@@ -13996,7 +13997,7 @@
   <numFmts count="1">
     <numFmt numFmtId="43" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
   </numFmts>
-  <fonts count="4">
+  <fonts count="6">
     <font>
       <sz val="11"/>
       <name val="Calibri"/>
@@ -14017,8 +14018,21 @@
       <name val="Calibri"/>
       <family val="2"/>
     </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -14031,8 +14045,14 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.79998168889431442"/>
+        <bgColor theme="4" tint="0.79998168889431442"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -14040,12 +14060,36 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color theme="4" tint="0.39997558519241921"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color theme="4" tint="0.39997558519241921"/>
+      </top>
+      <bottom style="thin">
+        <color theme="4" tint="0.39997558519241921"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4" tint="0.39997558519241921"/>
+      </top>
+      <bottom style="thin">
+        <color theme="4" tint="0.39997558519241921"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -14069,6 +14113,42 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="14" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="4" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="5" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="5" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -58500,9 +58580,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{473C8AD8-EDD1-40F9-866D-EB84AD252A65}">
   <dimension ref="A1:L1147"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B1" sqref="B1"/>
+      <selection pane="bottomLeft" sqref="A1:F20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="13"/>
@@ -102109,4 +102189,427 @@
     <tablePart r:id="rId1"/>
   </tableParts>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EDF55BE0-E507-4CB0-A0DE-FD331F2A348D}">
+  <dimension ref="A1:F20"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection sqref="A1:F1048576"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5"/>
+  <cols>
+    <col min="1" max="1" width="6.26953125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="33.54296875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="27.08984375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="18.6328125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.26953125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="10.453125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6">
+      <c r="A1" s="9" t="s">
+        <v>2293</v>
+      </c>
+      <c r="B1" s="10" t="s">
+        <v>3</v>
+      </c>
+      <c r="C1" s="10" t="s">
+        <v>4653</v>
+      </c>
+      <c r="D1" s="11" t="s">
+        <v>2299</v>
+      </c>
+      <c r="E1" s="12" t="s">
+        <v>2300</v>
+      </c>
+      <c r="F1" s="12" t="s">
+        <v>2301</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6">
+      <c r="A2" s="13">
+        <v>112194</v>
+      </c>
+      <c r="B2" s="14" t="s">
+        <v>7</v>
+      </c>
+      <c r="C2" s="14" t="s">
+        <v>4593</v>
+      </c>
+      <c r="D2" s="15">
+        <v>22126</v>
+      </c>
+      <c r="E2" s="16" t="s">
+        <v>2302</v>
+      </c>
+      <c r="F2" s="16" t="s">
+        <v>2303</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6">
+      <c r="A3" s="17">
+        <v>112198</v>
+      </c>
+      <c r="B3" s="18" t="s">
+        <v>10</v>
+      </c>
+      <c r="C3" s="18" t="s">
+        <v>4593</v>
+      </c>
+      <c r="D3" s="19">
+        <v>25490</v>
+      </c>
+      <c r="E3" s="20" t="s">
+        <v>2304</v>
+      </c>
+      <c r="F3" s="20" t="s">
+        <v>2305</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6">
+      <c r="A4" s="13">
+        <v>112214</v>
+      </c>
+      <c r="B4" s="14" t="s">
+        <v>12</v>
+      </c>
+      <c r="C4" s="14" t="s">
+        <v>4594</v>
+      </c>
+      <c r="D4" s="15">
+        <v>26158</v>
+      </c>
+      <c r="E4" s="16" t="s">
+        <v>2306</v>
+      </c>
+      <c r="F4" s="16" t="s">
+        <v>2307</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6">
+      <c r="A5" s="17">
+        <v>112225</v>
+      </c>
+      <c r="B5" s="18" t="s">
+        <v>14</v>
+      </c>
+      <c r="C5" s="18" t="s">
+        <v>4595</v>
+      </c>
+      <c r="D5" s="19">
+        <v>23048</v>
+      </c>
+      <c r="E5" s="20" t="s">
+        <v>2308</v>
+      </c>
+      <c r="F5" s="20" t="s">
+        <v>2309</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6">
+      <c r="A6" s="13">
+        <v>112254</v>
+      </c>
+      <c r="B6" s="14" t="s">
+        <v>16</v>
+      </c>
+      <c r="C6" s="14" t="s">
+        <v>4596</v>
+      </c>
+      <c r="D6" s="15">
+        <v>29303</v>
+      </c>
+      <c r="E6" s="16" t="s">
+        <v>2310</v>
+      </c>
+      <c r="F6" s="16" t="s">
+        <v>2311</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6">
+      <c r="A7" s="17">
+        <v>112258</v>
+      </c>
+      <c r="B7" s="18" t="s">
+        <v>18</v>
+      </c>
+      <c r="C7" s="18" t="s">
+        <v>4593</v>
+      </c>
+      <c r="D7" s="19">
+        <v>29502</v>
+      </c>
+      <c r="E7" s="20" t="s">
+        <v>2312</v>
+      </c>
+      <c r="F7" s="20" t="s">
+        <v>2313</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6">
+      <c r="A8" s="13">
+        <v>112265</v>
+      </c>
+      <c r="B8" s="14" t="s">
+        <v>20</v>
+      </c>
+      <c r="C8" s="14" t="s">
+        <v>4595</v>
+      </c>
+      <c r="D8" s="15">
+        <v>33263</v>
+      </c>
+      <c r="E8" s="16" t="s">
+        <v>2314</v>
+      </c>
+      <c r="F8" s="16" t="s">
+        <v>2315</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6">
+      <c r="A9" s="17">
+        <v>112271</v>
+      </c>
+      <c r="B9" s="18" t="s">
+        <v>22</v>
+      </c>
+      <c r="C9" s="18" t="s">
+        <v>4595</v>
+      </c>
+      <c r="D9" s="19">
+        <v>31003</v>
+      </c>
+      <c r="E9" s="20" t="s">
+        <v>2316</v>
+      </c>
+      <c r="F9" s="20" t="s">
+        <v>2317</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6">
+      <c r="A10" s="13">
+        <v>112279</v>
+      </c>
+      <c r="B10" s="14" t="s">
+        <v>24</v>
+      </c>
+      <c r="C10" s="14" t="s">
+        <v>4593</v>
+      </c>
+      <c r="D10" s="15">
+        <v>26566</v>
+      </c>
+      <c r="E10" s="16" t="s">
+        <v>2318</v>
+      </c>
+      <c r="F10" s="16" t="s">
+        <v>2319</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6">
+      <c r="A11" s="17">
+        <v>112295</v>
+      </c>
+      <c r="B11" s="18" t="s">
+        <v>26</v>
+      </c>
+      <c r="C11" s="18" t="s">
+        <v>4595</v>
+      </c>
+      <c r="D11" s="19">
+        <v>25720</v>
+      </c>
+      <c r="E11" s="20" t="s">
+        <v>2320</v>
+      </c>
+      <c r="F11" s="20" t="s">
+        <v>2321</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6">
+      <c r="A12" s="13">
+        <v>112299</v>
+      </c>
+      <c r="B12" s="14" t="s">
+        <v>28</v>
+      </c>
+      <c r="C12" s="14" t="s">
+        <v>4593</v>
+      </c>
+      <c r="D12" s="15">
+        <v>23818</v>
+      </c>
+      <c r="E12" s="16" t="s">
+        <v>2322</v>
+      </c>
+      <c r="F12" s="16" t="s">
+        <v>2323</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6">
+      <c r="A13" s="17">
+        <v>112319</v>
+      </c>
+      <c r="B13" s="18" t="s">
+        <v>30</v>
+      </c>
+      <c r="C13" s="18" t="s">
+        <v>4595</v>
+      </c>
+      <c r="D13" s="19">
+        <v>31140</v>
+      </c>
+      <c r="E13" s="20" t="s">
+        <v>2324</v>
+      </c>
+      <c r="F13" s="20" t="s">
+        <v>2325</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6">
+      <c r="A14" s="13">
+        <v>112171</v>
+      </c>
+      <c r="B14" s="14" t="s">
+        <v>32</v>
+      </c>
+      <c r="C14" s="14" t="s">
+        <v>4595</v>
+      </c>
+      <c r="D14" s="15">
+        <v>30190</v>
+      </c>
+      <c r="E14" s="16" t="s">
+        <v>2326</v>
+      </c>
+      <c r="F14" s="16" t="s">
+        <v>2327</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6">
+      <c r="A15" s="17">
+        <v>112355</v>
+      </c>
+      <c r="B15" s="18" t="s">
+        <v>34</v>
+      </c>
+      <c r="C15" s="18" t="s">
+        <v>4593</v>
+      </c>
+      <c r="D15" s="19">
+        <v>25163</v>
+      </c>
+      <c r="E15" s="20" t="s">
+        <v>2328</v>
+      </c>
+      <c r="F15" s="20" t="s">
+        <v>2329</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6">
+      <c r="A16" s="13">
+        <v>112358</v>
+      </c>
+      <c r="B16" s="14" t="s">
+        <v>36</v>
+      </c>
+      <c r="C16" s="14" t="s">
+        <v>4595</v>
+      </c>
+      <c r="D16" s="15">
+        <v>30120</v>
+      </c>
+      <c r="E16" s="16" t="s">
+        <v>2330</v>
+      </c>
+      <c r="F16" s="16" t="s">
+        <v>2331</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6">
+      <c r="A17" s="17">
+        <v>114239</v>
+      </c>
+      <c r="B17" s="18" t="s">
+        <v>38</v>
+      </c>
+      <c r="C17" s="18" t="s">
+        <v>4597</v>
+      </c>
+      <c r="D17" s="19">
+        <v>22497</v>
+      </c>
+      <c r="E17" s="20" t="s">
+        <v>2332</v>
+      </c>
+      <c r="F17" s="20" t="s">
+        <v>2333</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6">
+      <c r="A18" s="13">
+        <v>112173</v>
+      </c>
+      <c r="B18" s="14" t="s">
+        <v>40</v>
+      </c>
+      <c r="C18" s="14" t="s">
+        <v>4595</v>
+      </c>
+      <c r="D18" s="15">
+        <v>31596</v>
+      </c>
+      <c r="E18" s="16" t="s">
+        <v>2334</v>
+      </c>
+      <c r="F18" s="16" t="s">
+        <v>2335</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6">
+      <c r="A19" s="17">
+        <v>112375</v>
+      </c>
+      <c r="B19" s="18" t="s">
+        <v>42</v>
+      </c>
+      <c r="C19" s="18" t="s">
+        <v>4595</v>
+      </c>
+      <c r="D19" s="19">
+        <v>36296</v>
+      </c>
+      <c r="E19" s="20" t="s">
+        <v>2336</v>
+      </c>
+      <c r="F19" s="20" t="s">
+        <v>2337</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6">
+      <c r="A20" s="13">
+        <v>112377</v>
+      </c>
+      <c r="B20" s="14" t="s">
+        <v>44</v>
+      </c>
+      <c r="C20" s="14" t="s">
+        <v>4594</v>
+      </c>
+      <c r="D20" s="15">
+        <v>31625</v>
+      </c>
+      <c r="E20" s="16" t="s">
+        <v>2338</v>
+      </c>
+      <c r="F20" s="16" t="s">
+        <v>2339</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+</worksheet>
 </file>
--- a/PYTHON/EXCEL/dados.xlsx
+++ b/PYTHON/EXCEL/dados.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Luana\Documents\GitHub\ALURA\PYTHON\EXCEL\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\antonio.neto\Documents\GitHub\ALURA\PYTHON\EXCEL\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A2FA8915-F48B-492E-9FBB-5DEF664A62D2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BE981712-9F2A-4702-B40B-CC4801A5739B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="FARMACIA" sheetId="2" r:id="rId1"/>
@@ -14970,16 +14970,16 @@
       <selection pane="bottomLeft" activeCell="B22" sqref="B22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="13"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12.75"/>
   <cols>
     <col min="1" max="1" width="9" style="3" customWidth="1"/>
-    <col min="2" max="3" width="39.453125" style="3" customWidth="1"/>
-    <col min="4" max="4" width="21.26953125" style="8" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="14.81640625" style="6" customWidth="1"/>
+    <col min="2" max="3" width="39.42578125" style="3" customWidth="1"/>
+    <col min="4" max="4" width="21.28515625" style="8" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="14.85546875" style="6" customWidth="1"/>
     <col min="7" max="10" width="20" style="3" customWidth="1"/>
     <col min="11" max="11" width="20" style="4" customWidth="1"/>
     <col min="12" max="12" width="20" style="3" customWidth="1"/>
-    <col min="13" max="16384" width="9.1796875" style="3"/>
+    <col min="13" max="16384" width="9.140625" style="3"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:12">
@@ -58585,16 +58585,16 @@
       <selection pane="bottomLeft" sqref="A1:F20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="13"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12.75"/>
   <cols>
     <col min="1" max="1" width="9" style="3" customWidth="1"/>
-    <col min="2" max="3" width="39.453125" style="3" customWidth="1"/>
-    <col min="4" max="4" width="21.26953125" style="8" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="14.81640625" style="6" customWidth="1"/>
+    <col min="2" max="3" width="39.42578125" style="3" customWidth="1"/>
+    <col min="4" max="4" width="21.28515625" style="8" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="14.85546875" style="6" customWidth="1"/>
     <col min="7" max="10" width="20" style="3" customWidth="1"/>
     <col min="11" max="11" width="20" style="4" customWidth="1"/>
     <col min="12" max="12" width="20" style="3" customWidth="1"/>
-    <col min="13" max="16384" width="9.1796875" style="3"/>
+    <col min="13" max="16384" width="9.140625" style="3"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:12">
@@ -102196,17 +102196,17 @@
   <dimension ref="A1:F20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:F1048576"/>
+      <selection activeCell="C26" sqref="C26"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="6.26953125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="33.54296875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="27.08984375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="18.6328125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="12.26953125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="10.453125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="8.140625" customWidth="1"/>
+    <col min="2" max="2" width="33.5703125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="27.140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="18.5703125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="13.5703125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="10.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6">
